--- a/data_output/prism_passive/all_passive_out_emg_mean_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_mean_ind_max.xlsx
@@ -363,60 +363,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="O1">
         <v>16</v>
       </c>
-      <c r="D1">
+      <c r="P1">
+        <v>18</v>
+      </c>
+      <c r="Q1">
+        <v>19</v>
+      </c>
+      <c r="R1">
+        <v>20</v>
+      </c>
+      <c r="S1">
+        <v>21</v>
+      </c>
+      <c r="T1">
+        <v>22</v>
+      </c>
+      <c r="U1">
+        <v>24</v>
+      </c>
+      <c r="V1">
+        <v>25</v>
+      </c>
+      <c r="W1">
+        <v>26</v>
+      </c>
+      <c r="X1">
+        <v>28</v>
+      </c>
+      <c r="Y1">
+        <v>30</v>
+      </c>
+      <c r="Z1">
+        <v>31</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>2</v>
+      </c>
+      <c r="AC1">
+        <v>3</v>
+      </c>
+      <c r="AD1">
+        <v>4</v>
+      </c>
+      <c r="AE1">
+        <v>5</v>
+      </c>
+      <c r="AF1">
+        <v>6</v>
+      </c>
+      <c r="AG1">
+        <v>7</v>
+      </c>
+      <c r="AH1">
+        <v>8</v>
+      </c>
+      <c r="AI1">
+        <v>9</v>
+      </c>
+      <c r="AJ1">
+        <v>10</v>
+      </c>
+      <c r="AK1">
+        <v>11</v>
+      </c>
+      <c r="AL1">
+        <v>13</v>
+      </c>
+      <c r="AM1">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="AN1">
         <v>16</v>
       </c>
+      <c r="AO1">
+        <v>18</v>
+      </c>
+      <c r="AP1">
+        <v>19</v>
+      </c>
+      <c r="AQ1">
+        <v>20</v>
+      </c>
+      <c r="AR1">
+        <v>21</v>
+      </c>
+      <c r="AS1">
+        <v>22</v>
+      </c>
+      <c r="AT1">
+        <v>24</v>
+      </c>
+      <c r="AU1">
+        <v>25</v>
+      </c>
+      <c r="AV1">
+        <v>26</v>
+      </c>
+      <c r="AW1">
+        <v>28</v>
+      </c>
+      <c r="AX1">
+        <v>30</v>
+      </c>
+      <c r="AY1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>4.3887369990845402</v>
+      </c>
       <c r="C2">
+        <v>2.2227068143970068</v>
+      </c>
+      <c r="D2">
+        <v>14.110627040634526</v>
+      </c>
+      <c r="E2">
+        <v>14.691751163778424</v>
+      </c>
+      <c r="F2">
+        <v>12.392333878656896</v>
+      </c>
+      <c r="G2">
+        <v>3.8322879595412269</v>
+      </c>
+      <c r="H2">
+        <v>15.023031896333531</v>
+      </c>
+      <c r="I2">
+        <v>1.989325028281689</v>
+      </c>
+      <c r="J2">
+        <v>11.551449479043985</v>
+      </c>
+      <c r="K2">
+        <v>12.833403747683338</v>
+      </c>
+      <c r="L2">
+        <v>4.0119325569138047</v>
+      </c>
+      <c r="M2">
+        <v>2.5542496554247109</v>
+      </c>
+      <c r="O2">
         <v>2.0772800688634865</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>3.064069597461462</v>
+      </c>
+      <c r="Q2">
+        <v>1.6701387163980577</v>
+      </c>
+      <c r="R2">
+        <v>3.2006829808148707</v>
+      </c>
+      <c r="S2">
+        <v>8.0744723837491144</v>
+      </c>
+      <c r="T2">
+        <v>2.787202026139699</v>
+      </c>
+      <c r="U2">
+        <v>3.6719131767923847</v>
+      </c>
+      <c r="V2">
+        <v>11.097186032636335</v>
+      </c>
+      <c r="W2">
+        <v>6.7879558486301708</v>
+      </c>
+      <c r="X2">
+        <v>2.5170538332385646</v>
+      </c>
+      <c r="Y2">
+        <v>0.80620114958818134</v>
+      </c>
+      <c r="AA2">
+        <v>3.8797650654123217</v>
+      </c>
+      <c r="AB2">
+        <v>0.71998139384505799</v>
+      </c>
+      <c r="AC2">
+        <v>14.414012259560002</v>
+      </c>
+      <c r="AD2">
+        <v>6.898407309120552</v>
+      </c>
+      <c r="AE2">
+        <v>5.1720583915399425</v>
+      </c>
+      <c r="AF2">
+        <v>4.0575710884124554</v>
+      </c>
+      <c r="AG2">
+        <v>6.7717984629011525</v>
+      </c>
+      <c r="AH2">
+        <v>2.0058340450238483</v>
+      </c>
+      <c r="AI2">
+        <v>10.044453357651877</v>
+      </c>
+      <c r="AJ2">
+        <v>9.9832594933914436</v>
+      </c>
+      <c r="AK2">
+        <v>2.8409319922583784</v>
+      </c>
+      <c r="AL2">
+        <v>1.5358295287126924</v>
+      </c>
+      <c r="AM2">
         <v>0.8956094584642621</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>2.7859107173280622</v>
       </c>
+      <c r="AO2">
+        <v>2.312242149186559</v>
+      </c>
+      <c r="AP2">
+        <v>1.8558484553828609</v>
+      </c>
+      <c r="AQ2">
+        <v>2.0644947788960417</v>
+      </c>
+      <c r="AR2">
+        <v>4.5311617364765331</v>
+      </c>
+      <c r="AS2">
+        <v>2.2554119421595646</v>
+      </c>
+      <c r="AT2">
+        <v>1.184267329906598</v>
+      </c>
+      <c r="AU2">
+        <v>8.7853467192208594</v>
+      </c>
+      <c r="AV2">
+        <v>3.6153029108716472</v>
+      </c>
+      <c r="AW2">
+        <v>0.73119229668036156</v>
+      </c>
+      <c r="AX2">
+        <v>0.26991971949711135</v>
+      </c>
+      <c r="AY2">
+        <v>1.3482740177382107</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>14.118200729709688</v>
+      </c>
+      <c r="C3">
+        <v>3.2974443891221705</v>
+      </c>
+      <c r="D3">
+        <v>2.8545436416004941</v>
+      </c>
+      <c r="E3">
+        <v>13.885289910555681</v>
+      </c>
+      <c r="F3">
+        <v>4.4532963829892269</v>
+      </c>
+      <c r="G3">
+        <v>3.7493701334260323</v>
+      </c>
+      <c r="H3">
+        <v>11.993590985789231</v>
+      </c>
+      <c r="I3">
+        <v>2.9815467310300106</v>
+      </c>
+      <c r="J3">
+        <v>8.4347422802116228</v>
+      </c>
+      <c r="K3">
+        <v>5.7133621156850865</v>
+      </c>
+      <c r="L3">
+        <v>2.0450926092906099</v>
+      </c>
+      <c r="M3">
+        <v>5.7241870399168251</v>
+      </c>
+      <c r="N3">
         <v>1.1578596832142014</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>3.9278114606803931</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.660554760492885</v>
+      </c>
+      <c r="Q3">
+        <v>1.9484248559531856</v>
+      </c>
+      <c r="R3">
+        <v>5.0358905804308591</v>
+      </c>
+      <c r="S3">
+        <v>3.4060486188237831</v>
+      </c>
+      <c r="T3">
+        <v>0.73147196246321466</v>
+      </c>
+      <c r="U3">
+        <v>5.3434606124645425</v>
+      </c>
+      <c r="V3">
+        <v>6.2944225180758275</v>
+      </c>
+      <c r="W3">
+        <v>0.90357839940486129</v>
+      </c>
+      <c r="X3">
+        <v>1.4297067090633302</v>
+      </c>
+      <c r="Y3">
+        <v>1.5336011825413634</v>
+      </c>
+      <c r="AA3">
+        <v>2.7884510718724882</v>
+      </c>
+      <c r="AB3">
+        <v>11.442950354159205</v>
+      </c>
+      <c r="AC3">
+        <v>3.2269785413276599</v>
+      </c>
+      <c r="AD3">
+        <v>3.972602002587216</v>
+      </c>
+      <c r="AE3">
+        <v>4.390363275303466</v>
+      </c>
+      <c r="AF3">
+        <v>1.8508440066738168</v>
+      </c>
+      <c r="AG3">
+        <v>4.3955163247348441</v>
+      </c>
+      <c r="AH3">
+        <v>0.62838657710716306</v>
+      </c>
+      <c r="AI3">
+        <v>5.5391288209980676</v>
+      </c>
+      <c r="AJ3">
+        <v>4.569476406741404</v>
+      </c>
+      <c r="AK3">
+        <v>1.4934162743843842</v>
+      </c>
+      <c r="AL3">
+        <v>3.7169503602856695</v>
+      </c>
+      <c r="AM3">
         <v>0.59339385573536418</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>2.685024617954364</v>
+      </c>
+      <c r="AO3">
+        <v>1.6332005874554167</v>
+      </c>
+      <c r="AP3">
+        <v>0.53591715515007787</v>
+      </c>
+      <c r="AQ3">
+        <v>1.9667210188070396</v>
+      </c>
+      <c r="AR3">
+        <v>1.5432236653824416</v>
+      </c>
+      <c r="AS3">
+        <v>0.39221072857354028</v>
+      </c>
+      <c r="AT3">
+        <v>1.6791722378190475</v>
+      </c>
+      <c r="AU3">
+        <v>6.350996891422521</v>
+      </c>
+      <c r="AV3">
+        <v>0.83211378499199407</v>
+      </c>
+      <c r="AW3">
+        <v>0.68267728626297686</v>
+      </c>
+      <c r="AX3">
+        <v>1.5194915584311883</v>
+      </c>
+      <c r="AY3">
+        <v>2.786875434745284</v>
       </c>
     </row>
   </sheetData>
